--- a/genshin/430677854203332483_2020-09-03_14-10-02.xlsx
+++ b/genshin/430677854203332483_2020-09-03_14-10-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:50:32</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11842592592</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-05 11:10:49</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44079.4658449074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>3451664443</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-03 22:45:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44077.94797453703</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-03 21:40:17</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44077.90297453704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>3451252398</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-03 21:09:51</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44077.88184027778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -918,10 +924,8 @@
           <t>3449870706</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-03 21:05:27</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44077.87878472222</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -989,10 +993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:25:56</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44077.85134259259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1060,10 +1062,8 @@
           <t>3449870706</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:14:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44077.84311342592</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>3451002106</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:07:33</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44077.83857638889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1208,10 +1206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-03 19:23:55</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44077.80827546296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1283,10 +1279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-03 19:23:09</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44077.80774305556</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1354,10 +1348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-03 19:09:32</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44077.79828703704</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1417,10 +1409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:16:03</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44077.76114583333</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1496,10 +1486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:09:05</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44077.75630787037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1571,10 +1559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:28:14</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44077.72793981482</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1634,10 +1620,8 @@
           <t>3450326895</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:11:22</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44077.71622685185</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1713,10 +1697,8 @@
           <t>3450151364</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:11:46</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44077.67483796296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1788,10 +1770,8 @@
           <t>3450001030</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:21:37</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44077.64001157408</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1867,10 +1847,8 @@
           <t>3450001030</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:21:18</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44077.63979166667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1946,10 +1924,8 @@
           <t>3449999135</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:12:39</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44077.63378472222</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2017,10 +1993,8 @@
           <t>3450001030</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:12:11</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44077.63346064815</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2084,10 +2058,8 @@
           <t>3449988901</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:09:37</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44077.63167824074</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2163,10 +2135,8 @@
           <t>3449988801</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:09:31</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44077.6316087963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2242,10 +2212,8 @@
           <t>3449977769</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:04:02</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44077.62780092593</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2321,10 +2289,8 @@
           <t>3449968523</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:00:03</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44077.62503472222</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2400,10 +2366,8 @@
           <t>3449970874</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:59:55</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44077.62494212963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2479,10 +2443,8 @@
           <t>3449938269</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:47:41</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44077.61644675926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2555,10 +2517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:39:07</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44077.61049768519</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2622,10 +2582,8 @@
           <t>3449916803</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:38:35</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44077.61012731482</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2693,10 +2651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:38:14</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44077.60988425926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2764,10 +2720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:37:52</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44077.60962962963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2835,10 +2789,8 @@
           <t>3449880035</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:26:58</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44077.60206018519</v>
       </c>
       <c r="I33" t="n">
         <v>6</v>
@@ -2906,10 +2858,8 @@
           <t>3449868648</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:25:42</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44077.60118055555</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -2977,10 +2927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:24:06</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44077.60006944444</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3052,10 +3000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:23:42</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44077.59979166667</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3129,10 +3075,8 @@
           <t>3449880035</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:22:17</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44077.59880787037</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3209,10 +3153,8 @@
           <t>3449869967</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:22:13</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44077.59876157407</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3288,10 +3230,8 @@
           <t>3449871866</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:21:08</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44077.59800925926</v>
       </c>
       <c r="I39" t="n">
         <v>11</v>
@@ -3368,10 +3308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:20:49</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44077.59778935185</v>
       </c>
       <c r="I40" t="n">
         <v>21</v>
@@ -3447,10 +3385,8 @@
           <t>3449868648</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:20:38</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44077.59766203703</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
@@ -3522,10 +3458,8 @@
           <t>3449870706</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:19:48</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44077.59708333333</v>
       </c>
       <c r="I42" t="n">
         <v>5</v>
@@ -3593,10 +3527,8 @@
           <t>3449867127</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:18:45</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44077.59635416666</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3672,10 +3604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:23</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44077.59471064815</v>
       </c>
       <c r="I44" t="n">
         <v>16</v>
@@ -3751,10 +3681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:01</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44077.59445601852</v>
       </c>
       <c r="I45" t="n">
         <v>6</v>
@@ -3826,10 +3754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:12</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44077.59388888889</v>
       </c>
       <c r="I46" t="n">
         <v>39</v>
@@ -3897,10 +3823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:14:33</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44077.5934375</v>
       </c>
       <c r="I47" t="n">
         <v>48</v>
@@ -3968,10 +3892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:14:01</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44077.59306712963</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4043,10 +3965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:13:07</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44077.59244212963</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4122,10 +4042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:12:29</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44077.59200231481</v>
       </c>
       <c r="I50" t="n">
         <v>101</v>
@@ -4189,10 +4107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:12:25</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44077.59195601852</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4264,10 +4180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:12:01</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44077.59167824074</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4335,10 +4249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:50</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44077.59155092593</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4403,10 +4315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:32</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44077.59134259259</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4482,10 +4392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:31</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44077.59133101852</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4549,10 +4457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:28</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44077.5912962963</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4624,10 +4530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:26</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44077.59127314815</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -4699,10 +4603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:21</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44077.59121527777</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4767,10 +4669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:07</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44077.59105324074</v>
       </c>
       <c r="I59" t="n">
         <v>26</v>
@@ -4839,10 +4739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:03</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44077.59100694444</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4910,10 +4808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:03</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44077.59100694444</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4981,10 +4877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:10:58</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44077.59094907407</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5060,10 +4954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:10:52</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44077.59087962963</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5139,10 +5031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:10:46</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44077.59081018518</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5210,10 +5100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:10:46</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44077.59081018518</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5281,10 +5169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:10:45</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44077.59079861111</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5356,10 +5242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:10:31</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44077.59063657407</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5423,10 +5307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:10:29</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44077.59061342593</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
